--- a/基本設計/DB設計/テーブル設計書.xlsx
+++ b/基本設計/DB設計/テーブル設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ユーザー\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\IksInfoShare\基本設計\DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE2BA9C-87BD-41C8-98C0-3ACDD5B05B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1818EFC-77DF-43ED-A83D-FB1F560C0D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="315" windowWidth="14520" windowHeight="13185" firstSheet="1" activeTab="2" xr2:uid="{CC34C650-121F-49E2-A7A3-3D724DCA60A6}"/>
+    <workbookView xWindow="11430" yWindow="1410" windowWidth="14520" windowHeight="13185" firstSheet="3" activeTab="4" xr2:uid="{CC34C650-121F-49E2-A7A3-3D724DCA60A6}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ定義テーブル" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>ユーザーテーブル</t>
     <phoneticPr fontId="1"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -234,10 +230,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>short</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0：1対1
 1：複数</t>
     <rPh sb="3" eb="4">
@@ -263,10 +255,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cdate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -368,6 +356,38 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -737,73 +757,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C989200A-7B14-4110-A76F-50FA2AF7CCD2}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -816,12 +839,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A3F150-3B9B-46D9-897F-56E838CD91D0}">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -832,29 +858,29 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -862,16 +888,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
@@ -879,10 +905,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
@@ -890,10 +916,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -906,114 +932,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32D1934-16CA-4BC9-B2C4-27EC3F66CE52}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1026,121 +1055,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFC0BC7-0F09-4974-847D-6E30A0EC57C3}">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="75" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1154,63 +1186,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8529231-C562-4C83-BBB1-FC7315CD7DDC}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
@@ -1218,10 +1251,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
